--- a/test/functional/xlsx_files/chart_doughnut05.xlsx
+++ b/test/functional/xlsx_files/chart_doughnut05.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="390" windowWidth="15855" windowHeight="9150"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -125,7 +125,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
